--- a/guizhou0714/Loadshedding.xlsx
+++ b/guizhou0714/Loadshedding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\matlabfile\2024\guizhou\1103\SL_P2P\guizhou0714\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\guizhou0714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838985CF-C489-4510-8FB8-83DB2734698C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C205518A-325C-49FC-8C7C-8B24E6B4C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11112" windowHeight="6336" xr2:uid="{B8FE782B-494C-4557-AD3B-8BEFC5976FA1}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9960" xr2:uid="{B8FE782B-494C-4557-AD3B-8BEFC5976FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,9 +389,9 @@
       <selection sqref="A1:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -494,31 +494,31 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.949999999999832</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.949999999999832</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.949999999999832</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>16.949999999999832</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>16.949999999999832</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -568,31 +568,31 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>14.499999999999915</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -642,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1086,31 +1086,31 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>63.649999999999835</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>63.649999999999835</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>63.649999999999835</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>63.649999999999835</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1530,31 +1530,31 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
